--- a/Allocation_Of_Manpower/region_info.xlsx
+++ b/Allocation_Of_Manpower/region_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - dongguk.edu\DGU_Unv\2022\3-2학기\컴퓨터알고리즘과실습\팀 프로젝트\Allocation_Of_Manpower\Allocation_Of_Manpower\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/97mjh1012_dongguk_edu/Documents/DGU_Unv/2022/3-2학기/컴퓨터알고리즘과실습/팀 프로젝트/Allocation_Of_Manpower/Allocation_Of_Manpower/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A202F-899F-4437-8011-D0504A5C1E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E65A202F-899F-4437-8011-D0504A5C1E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F0E8668-6EC8-4B2F-993B-62B726E8D1E4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{81AE43DD-69EE-40A9-B4EA-58C917FD8C0A}"/>
+    <workbookView xWindow="3090" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{81AE43DD-69EE-40A9-B4EA-58C917FD8C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,26 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>구역 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>region0</t>
   </si>
   <si>
-    <t>최소 필요 인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>region1</t>
   </si>
   <si>
-    <t>최대 필요 인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사고 위험도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사고 규모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>region2</t>
   </si>
 </sst>
 </file>
@@ -422,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F9A818-CEE3-4FBD-BF67-98ED33D8AE79}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -434,122 +423,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>60</v>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="E3">
         <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
